--- a/data/04-27-2021 05_40_26_784849.xlsx
+++ b/data/04-27-2021 05_40_26_784849.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepositories\AlkalinityTitrator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITRepositories\AlkalinityTitrator\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{17BA7788-FA5E-4168-B278-0687FA50AA44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BF13D7-2B09-4524-AD9F-051C3B27F4C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView minimized="1" xWindow="28470" yWindow="1425" windowWidth="18900" windowHeight="11055" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
     <sheet name="Chart2" sheetId="3" r:id="rId2"/>
     <sheet name="04-27-2021 05_40_26_784849" sheetId="1" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -595,13 +598,27 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -609,14 +626,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Theoretical</a:t>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>April 27, 2021- Full Titration</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Old Data</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -632,13 +649,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -680,26 +711,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="fixedVal"/>
-            <c:noEndCap val="0"/>
-            <c:val val="1.0000000000000002E-2"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>'04-27-2021 05_40_26_784849'!$C$2:$C$2634</c:f>
@@ -16740,14 +16751,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>April 29, 2021 - 175mL</a:t>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>April 27, 2021- 3.5 to 3 pH</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> sample</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -18196,6 +18207,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>HCl Volume Added (mL)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -18260,6 +18326,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>pH Probe Voltage (V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -19461,10 +19582,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -19472,10 +19593,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -19486,7 +19607,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8678333" cy="6297083"/>
+    <xdr:ext cx="8667750" cy="6296025"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -19519,7 +19640,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8652993" cy="6278451"/>
+    <xdr:ext cx="8667750" cy="6296025"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -19546,6 +19667,2414 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Chart1"/>
+      <sheetName val="Chart2"/>
+      <sheetName val="06-09-2020 17_23_28_442661"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="2">
+        <row r="45">
+          <cell r="B45">
+            <v>0.200093606372264</v>
+          </cell>
+          <cell r="C45">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46">
+            <v>0.202618683431501</v>
+          </cell>
+          <cell r="C46">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47">
+            <v>0.20296869411297899</v>
+          </cell>
+          <cell r="C47">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48">
+            <v>0.19515595568712399</v>
+          </cell>
+          <cell r="C48">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49">
+            <v>0.18849325235755399</v>
+          </cell>
+          <cell r="C49">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50">
+            <v>0.20353121127964099</v>
+          </cell>
+          <cell r="C50">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51">
+            <v>0.18960578630939601</v>
+          </cell>
+          <cell r="C51">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52">
+            <v>0.202093667409283</v>
+          </cell>
+          <cell r="C52">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53">
+            <v>0.196931009857478</v>
+          </cell>
+          <cell r="C53">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54">
+            <v>0.19175585192419201</v>
+          </cell>
+          <cell r="C54">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55">
+            <v>0.20249367961668699</v>
+          </cell>
+          <cell r="C55">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56">
+            <v>0.188743259987182</v>
+          </cell>
+          <cell r="C56">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57">
+            <v>0.19830605182042901</v>
+          </cell>
+          <cell r="C57">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58">
+            <v>0.20069362468336999</v>
+          </cell>
+          <cell r="C58">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59">
+            <v>0.19028080690939</v>
+          </cell>
+          <cell r="C59">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60">
+            <v>0.19595598010193099</v>
+          </cell>
+          <cell r="C60">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61">
+            <v>0.202531180761131</v>
+          </cell>
+          <cell r="C61">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62">
+            <v>0.19135583971678799</v>
+          </cell>
+          <cell r="C62">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63">
+            <v>0.19715601672414301</v>
+          </cell>
+          <cell r="C63">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64">
+            <v>0.19866856288338799</v>
+          </cell>
+          <cell r="C64">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65">
+            <v>0.20378121890926801</v>
+          </cell>
+          <cell r="C65">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66">
+            <v>0.1920183599353</v>
+          </cell>
+          <cell r="C66">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="B67">
+            <v>0.20369371623889801</v>
+          </cell>
+          <cell r="C67">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68">
+            <v>0.19579347514267401</v>
+          </cell>
+          <cell r="C68">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69">
+            <v>0.19411842402417001</v>
+          </cell>
+          <cell r="C69">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70">
+            <v>0.19980609759819301</v>
+          </cell>
+          <cell r="C70">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71">
+            <v>0.202093667409283</v>
+          </cell>
+          <cell r="C71">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72">
+            <v>0.18894326609088399</v>
+          </cell>
+          <cell r="C72">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73">
+            <v>0.19001829889828101</v>
+          </cell>
+          <cell r="C73">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74">
+            <v>0.18931827753532501</v>
+          </cell>
+          <cell r="C74">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75">
+            <v>0.19120583513901099</v>
+          </cell>
+          <cell r="C75">
+            <v>3.05</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76">
+            <v>0.2038937223426</v>
+          </cell>
+          <cell r="C76">
+            <v>3.05</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77">
+            <v>0.19265587939084999</v>
+          </cell>
+          <cell r="C77">
+            <v>3.05</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="B78">
+            <v>0.20398122501297</v>
+          </cell>
+          <cell r="C78">
+            <v>3.05</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="B79">
+            <v>0.18888076418347699</v>
+          </cell>
+          <cell r="C79">
+            <v>3.05</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="B80">
+            <v>0.203831220435193</v>
+          </cell>
+          <cell r="C80">
+            <v>3.05</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81">
+            <v>0.194368431653798</v>
+          </cell>
+          <cell r="C81">
+            <v>3.05</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="B82">
+            <v>0.194255928220465</v>
+          </cell>
+          <cell r="C82">
+            <v>3.05</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="B83">
+            <v>0.20364371471297299</v>
+          </cell>
+          <cell r="C83">
+            <v>3.05</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="B84">
+            <v>0.189155772576067</v>
+          </cell>
+          <cell r="C84">
+            <v>3.05</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="B85">
+            <v>0.20346870937223399</v>
+          </cell>
+          <cell r="C85">
+            <v>3.0999999999999899</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="B86">
+            <v>0.190330808435316</v>
+          </cell>
+          <cell r="C86">
+            <v>3.0999999999999899</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="B87">
+            <v>0.19196835840937501</v>
+          </cell>
+          <cell r="C87">
+            <v>3.0999999999999899</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="B88">
+            <v>0.20219367046113401</v>
+          </cell>
+          <cell r="C88">
+            <v>3.0999999999999899</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="B89">
+            <v>0.20301869563890401</v>
+          </cell>
+          <cell r="C89">
+            <v>3.0999999999999899</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="B90">
+            <v>0.19889356975005301</v>
+          </cell>
+          <cell r="C90">
+            <v>3.0999999999999899</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="B91">
+            <v>0.18929327677236199</v>
+          </cell>
+          <cell r="C91">
+            <v>3.0999999999999899</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="B92">
+            <v>0.18888076418347699</v>
+          </cell>
+          <cell r="C92">
+            <v>3.0999999999999899</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="B93">
+            <v>0.18885576342051399</v>
+          </cell>
+          <cell r="C93">
+            <v>3.0999999999999899</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="B94">
+            <v>0.192630878627887</v>
+          </cell>
+          <cell r="C94">
+            <v>3.0999999999999899</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="B95">
+            <v>0.190568315683462</v>
+          </cell>
+          <cell r="C95">
+            <v>3.1499999999999901</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="B96">
+            <v>0.205393768120365</v>
+          </cell>
+          <cell r="C96">
+            <v>3.1499999999999901</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="B97">
+            <v>0.19609348429822601</v>
+          </cell>
+          <cell r="C97">
+            <v>3.1499999999999901</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="B98">
+            <v>0.19001829889828101</v>
+          </cell>
+          <cell r="C98">
+            <v>3.1499999999999901</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="B99">
+            <v>0.19003079927976299</v>
+          </cell>
+          <cell r="C99">
+            <v>3.1499999999999901</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="B100">
+            <v>0.20266868495742599</v>
+          </cell>
+          <cell r="C100">
+            <v>3.1499999999999901</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="B101">
+            <v>0.20134364452040099</v>
+          </cell>
+          <cell r="C101">
+            <v>3.1499999999999901</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="B102">
+            <v>0.198206048768578</v>
+          </cell>
+          <cell r="C102">
+            <v>3.1499999999999901</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="B103">
+            <v>0.19346840418713901</v>
+          </cell>
+          <cell r="C103">
+            <v>3.1499999999999901</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="B104">
+            <v>0.196843507187109</v>
+          </cell>
+          <cell r="C104">
+            <v>3.1499999999999901</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="B105">
+            <v>0.20629379558702299</v>
+          </cell>
+          <cell r="C105">
+            <v>3.19999999999999</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="B106">
+            <v>0.20054362010559401</v>
+          </cell>
+          <cell r="C106">
+            <v>3.19999999999999</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="B107">
+            <v>0.19513095492416099</v>
+          </cell>
+          <cell r="C107">
+            <v>3.19999999999999</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="B108">
+            <v>0.19185585497604299</v>
+          </cell>
+          <cell r="C108">
+            <v>3.19999999999999</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="B109">
+            <v>0.19550596636860201</v>
+          </cell>
+          <cell r="C109">
+            <v>3.19999999999999</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="B110">
+            <v>0.20108113650929199</v>
+          </cell>
+          <cell r="C110">
+            <v>3.19999999999999</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="B111">
+            <v>0.20568127689443599</v>
+          </cell>
+          <cell r="C111">
+            <v>3.19999999999999</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="B112">
+            <v>0.198818567461165</v>
+          </cell>
+          <cell r="C112">
+            <v>3.19999999999999</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="B113">
+            <v>0.19226836756492799</v>
+          </cell>
+          <cell r="C113">
+            <v>3.19999999999999</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="B114">
+            <v>0.206656306649983</v>
+          </cell>
+          <cell r="C114">
+            <v>3.19999999999999</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="B115">
+            <v>0.19795604113894999</v>
+          </cell>
+          <cell r="C115">
+            <v>3.2499999999999898</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="B116">
+            <v>0.20659380474257599</v>
+          </cell>
+          <cell r="C116">
+            <v>3.2499999999999898</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="B117">
+            <v>0.19654349803155599</v>
+          </cell>
+          <cell r="C117">
+            <v>3.2499999999999898</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="B118">
+            <v>0.197618530838953</v>
+          </cell>
+          <cell r="C118">
+            <v>3.2499999999999898</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="B119">
+            <v>0.20799384746848901</v>
+          </cell>
+          <cell r="C119">
+            <v>3.2499999999999898</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="B120">
+            <v>0.207693838312936</v>
+          </cell>
+          <cell r="C120">
+            <v>3.2499999999999898</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="B121">
+            <v>0.197756035035248</v>
+          </cell>
+          <cell r="C121">
+            <v>3.2499999999999898</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="B122">
+            <v>0.20436873683889201</v>
+          </cell>
+          <cell r="C122">
+            <v>3.2499999999999898</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="B123">
+            <v>0.193343400372325</v>
+          </cell>
+          <cell r="C123">
+            <v>3.2499999999999898</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="B124">
+            <v>0.205831281472212</v>
+          </cell>
+          <cell r="C124">
+            <v>3.2499999999999898</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="B125">
+            <v>0.195168456068605</v>
+          </cell>
+          <cell r="C125">
+            <v>3.2999999999999901</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="B126">
+            <v>0.198556059450056</v>
+          </cell>
+          <cell r="C126">
+            <v>3.2999999999999901</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="B127">
+            <v>0.200006103701895</v>
+          </cell>
+          <cell r="C127">
+            <v>3.2999999999999901</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="B128">
+            <v>0.208756370738853</v>
+          </cell>
+          <cell r="C128">
+            <v>3.2999999999999901</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="B129">
+            <v>0.19784353770561799</v>
+          </cell>
+          <cell r="C129">
+            <v>3.2999999999999901</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="B130">
+            <v>0.208756370738853</v>
+          </cell>
+          <cell r="C130">
+            <v>3.2999999999999901</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="B131">
+            <v>0.194780944242683</v>
+          </cell>
+          <cell r="C131">
+            <v>3.2999999999999901</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="B132">
+            <v>0.20898137760551699</v>
+          </cell>
+          <cell r="C132">
+            <v>3.2999999999999901</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="B133">
+            <v>0.194580938138981</v>
+          </cell>
+          <cell r="C133">
+            <v>3.2999999999999901</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="B134">
+            <v>0.203718717001861</v>
+          </cell>
+          <cell r="C134">
+            <v>3.2999999999999901</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="B135">
+            <v>0.20349371013519699</v>
+          </cell>
+          <cell r="C135">
+            <v>3.3499999999999899</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="B136">
+            <v>0.20654380321665</v>
+          </cell>
+          <cell r="C136">
+            <v>3.3499999999999899</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="B137">
+            <v>0.20013110751670801</v>
+          </cell>
+          <cell r="C137">
+            <v>3.3499999999999899</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="B138">
+            <v>0.207156321909237</v>
+          </cell>
+          <cell r="C138">
+            <v>3.3499999999999899</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="B139">
+            <v>0.20108113650929199</v>
+          </cell>
+          <cell r="C139">
+            <v>3.3499999999999899</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="B140">
+            <v>0.20740632953886501</v>
+          </cell>
+          <cell r="C140">
+            <v>3.3499999999999899</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="B141">
+            <v>0.20236867580187301</v>
+          </cell>
+          <cell r="C141">
+            <v>3.3499999999999899</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="B142">
+            <v>0.208218854335154</v>
+          </cell>
+          <cell r="C142">
+            <v>3.3499999999999899</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="B143">
+            <v>0.199443586535233</v>
+          </cell>
+          <cell r="C143">
+            <v>3.3499999999999899</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="B144">
+            <v>0.206393798638874</v>
+          </cell>
+          <cell r="C144">
+            <v>3.3499999999999899</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="B145">
+            <v>0.20755633411664101</v>
+          </cell>
+          <cell r="C145">
+            <v>3.3999999999999901</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="B146">
+            <v>0.20065612353892601</v>
+          </cell>
+          <cell r="C146">
+            <v>3.3999999999999901</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="B147">
+            <v>0.197381023590807</v>
+          </cell>
+          <cell r="C147">
+            <v>3.3999999999999901</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="B148">
+            <v>0.20195616321298801</v>
+          </cell>
+          <cell r="C148">
+            <v>3.3999999999999901</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="B149">
+            <v>0.211581456953642</v>
+          </cell>
+          <cell r="C149">
+            <v>3.3999999999999901</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="B150">
+            <v>0.206743809320352</v>
+          </cell>
+          <cell r="C150">
+            <v>3.3999999999999901</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="B151">
+            <v>0.20746883144627201</v>
+          </cell>
+          <cell r="C151">
+            <v>3.3999999999999901</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="B152">
+            <v>0.211493954283272</v>
+          </cell>
+          <cell r="C152">
+            <v>3.3999999999999901</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="B153">
+            <v>0.20750633259071599</v>
+          </cell>
+          <cell r="C153">
+            <v>3.3999999999999901</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="B154">
+            <v>0.19915607776116201</v>
+          </cell>
+          <cell r="C154">
+            <v>3.3999999999999901</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="B155">
+            <v>0.20343120822779001</v>
+          </cell>
+          <cell r="C155">
+            <v>3.44999999999999</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="B156">
+            <v>0.199443586535233</v>
+          </cell>
+          <cell r="C156">
+            <v>3.44999999999999</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="B157">
+            <v>0.21271899166844599</v>
+          </cell>
+          <cell r="C157">
+            <v>3.44999999999999</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="B158">
+            <v>0.19825605029450299</v>
+          </cell>
+          <cell r="C158">
+            <v>3.44999999999999</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="B159">
+            <v>0.20735632801293899</v>
+          </cell>
+          <cell r="C159">
+            <v>3.44999999999999</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="B160">
+            <v>0.19995610217596901</v>
+          </cell>
+          <cell r="C160">
+            <v>3.44999999999999</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="B161">
+            <v>0.21165645924252999</v>
+          </cell>
+          <cell r="C161">
+            <v>3.44999999999999</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="B162">
+            <v>0.20814385204626601</v>
+          </cell>
+          <cell r="C162">
+            <v>3.44999999999999</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="B163">
+            <v>0.21274399243140901</v>
+          </cell>
+          <cell r="C163">
+            <v>3.44999999999999</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="B164">
+            <v>0.21219397564622899</v>
+          </cell>
+          <cell r="C164">
+            <v>3.44999999999999</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="B165">
+            <v>0.19928108157597499</v>
+          </cell>
+          <cell r="C165">
+            <v>3.44999999999999</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="B166">
+            <v>0.199318582720419</v>
+          </cell>
+          <cell r="C166">
+            <v>3.44999999999999</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="B167">
+            <v>0.211493954283272</v>
+          </cell>
+          <cell r="C167">
+            <v>3.4999999999999898</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="B168">
+            <v>0.20425623340556001</v>
+          </cell>
+          <cell r="C168">
+            <v>3.4999999999999898</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="B169">
+            <v>0.20961889706106701</v>
+          </cell>
+          <cell r="C169">
+            <v>3.4999999999999898</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="B170">
+            <v>0.213144004638813</v>
+          </cell>
+          <cell r="C170">
+            <v>3.4999999999999898</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="B171">
+            <v>0.19919357890560599</v>
+          </cell>
+          <cell r="C171">
+            <v>3.4999999999999898</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="B172">
+            <v>0.200356114383373</v>
+          </cell>
+          <cell r="C172">
+            <v>3.4999999999999898</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="B173">
+            <v>0.20083112887966501</v>
+          </cell>
+          <cell r="C173">
+            <v>3.4999999999999898</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="B174">
+            <v>0.20540626850184601</v>
+          </cell>
+          <cell r="C174">
+            <v>3.4999999999999898</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="B175">
+            <v>0.19934358348338199</v>
+          </cell>
+          <cell r="C175">
+            <v>3.4999999999999898</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="B176">
+            <v>0.21144395275734701</v>
+          </cell>
+          <cell r="C176">
+            <v>3.4999999999999898</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="B177">
+            <v>0.21413153477584099</v>
+          </cell>
+          <cell r="C177">
+            <v>3.5499999999999901</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="B178">
+            <v>0.20890637531662901</v>
+          </cell>
+          <cell r="C178">
+            <v>3.5499999999999901</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="B179">
+            <v>0.213169005401776</v>
+          </cell>
+          <cell r="C179">
+            <v>3.5499999999999901</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="B180">
+            <v>0.201031134983367</v>
+          </cell>
+          <cell r="C180">
+            <v>3.5499999999999901</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="B181">
+            <v>0.20154365062410301</v>
+          </cell>
+          <cell r="C181">
+            <v>3.5499999999999901</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="B182">
+            <v>0.20258118228705699</v>
+          </cell>
+          <cell r="C182">
+            <v>3.5499999999999901</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="B183">
+            <v>0.21291899777214801</v>
+          </cell>
+          <cell r="C183">
+            <v>3.5499999999999901</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="B184">
+            <v>0.20373121738334299</v>
+          </cell>
+          <cell r="C184">
+            <v>3.5499999999999901</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="B185">
+            <v>0.201618652912991</v>
+          </cell>
+          <cell r="C185">
+            <v>3.5499999999999901</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="B186">
+            <v>0.214906558427686</v>
+          </cell>
+          <cell r="C186">
+            <v>3.5499999999999901</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="B187">
+            <v>0.21525656910916399</v>
+          </cell>
+          <cell r="C187">
+            <v>3.5999999999999899</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="B188">
+            <v>0.21168146000549301</v>
+          </cell>
+          <cell r="C188">
+            <v>3.5999999999999899</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="B189">
+            <v>0.20295619373149801</v>
+          </cell>
+          <cell r="C189">
+            <v>3.5999999999999899</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="B190">
+            <v>6.5852009643848894E-2</v>
+          </cell>
+          <cell r="C190">
+            <v>3.5999999999999899</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="B191">
+            <v>4.5126377147740098E-3</v>
+          </cell>
+          <cell r="C191">
+            <v>3.5999999999999899</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="B192">
+            <v>0.18543065889461899</v>
+          </cell>
+          <cell r="C192">
+            <v>3.5999999999999899</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="B193">
+            <v>0.20510625934629301</v>
+          </cell>
+          <cell r="C193">
+            <v>3.5999999999999899</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="B194">
+            <v>0.20435623645741099</v>
+          </cell>
+          <cell r="C194">
+            <v>3.5999999999999899</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="B195">
+            <v>0.20939389019440199</v>
+          </cell>
+          <cell r="C195">
+            <v>3.5999999999999899</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="B196">
+            <v>0.19730602130191899</v>
+          </cell>
+          <cell r="C196">
+            <v>3.5999999999999899</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="B197">
+            <v>0.20634379711294901</v>
+          </cell>
+          <cell r="C197">
+            <v>3.5999999999999899</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="B198">
+            <v>0.20865636768700199</v>
+          </cell>
+          <cell r="C198">
+            <v>3.5999999999999899</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="B199">
+            <v>0.213881527146214</v>
+          </cell>
+          <cell r="C199">
+            <v>3.5999999999999899</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="B200">
+            <v>0.21088143559068501</v>
+          </cell>
+          <cell r="C200">
+            <v>3.5999999999999899</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="B201">
+            <v>0.20328120365001301</v>
+          </cell>
+          <cell r="C201">
+            <v>3.5999999999999899</v>
+          </cell>
+        </row>
+        <row r="202">
+          <cell r="B202">
+            <v>0.201181139561143</v>
+          </cell>
+          <cell r="C202">
+            <v>3.6499999999999901</v>
+          </cell>
+        </row>
+        <row r="203">
+          <cell r="B203">
+            <v>0.201356144901882</v>
+          </cell>
+          <cell r="C203">
+            <v>3.6499999999999901</v>
+          </cell>
+        </row>
+        <row r="204">
+          <cell r="B204">
+            <v>0.20599378643147001</v>
+          </cell>
+          <cell r="C204">
+            <v>3.6499999999999901</v>
+          </cell>
+        </row>
+        <row r="205">
+          <cell r="B205">
+            <v>0.20363121433149201</v>
+          </cell>
+          <cell r="C205">
+            <v>3.6499999999999901</v>
+          </cell>
+        </row>
+        <row r="206">
+          <cell r="B206">
+            <v>0.203806219672231</v>
+          </cell>
+          <cell r="C206">
+            <v>3.6499999999999901</v>
+          </cell>
+        </row>
+        <row r="207">
+          <cell r="B207">
+            <v>0.216006591998046</v>
+          </cell>
+          <cell r="C207">
+            <v>3.6499999999999901</v>
+          </cell>
+        </row>
+        <row r="208">
+          <cell r="B208">
+            <v>0.21554407788323601</v>
+          </cell>
+          <cell r="C208">
+            <v>3.6499999999999901</v>
+          </cell>
+        </row>
+        <row r="209">
+          <cell r="B209">
+            <v>0.2031561998352</v>
+          </cell>
+          <cell r="C209">
+            <v>3.6499999999999901</v>
+          </cell>
+        </row>
+        <row r="210">
+          <cell r="B210">
+            <v>0.21684411755729799</v>
+          </cell>
+          <cell r="C210">
+            <v>3.6499999999999901</v>
+          </cell>
+        </row>
+        <row r="211">
+          <cell r="B211">
+            <v>0.214319040498062</v>
+          </cell>
+          <cell r="C211">
+            <v>3.6499999999999901</v>
+          </cell>
+        </row>
+        <row r="212">
+          <cell r="B212">
+            <v>0.21309400311288701</v>
+          </cell>
+          <cell r="C212">
+            <v>3.69999999999999</v>
+          </cell>
+        </row>
+        <row r="213">
+          <cell r="B213">
+            <v>0.21485655690176</v>
+          </cell>
+          <cell r="C213">
+            <v>3.69999999999999</v>
+          </cell>
+        </row>
+        <row r="214">
+          <cell r="B214">
+            <v>0.203443708609271</v>
+          </cell>
+          <cell r="C214">
+            <v>3.69999999999999</v>
+          </cell>
+        </row>
+        <row r="215">
+          <cell r="B215">
+            <v>0.21771914426099401</v>
+          </cell>
+          <cell r="C215">
+            <v>3.69999999999999</v>
+          </cell>
+        </row>
+        <row r="216">
+          <cell r="B216">
+            <v>0.212793993957335</v>
+          </cell>
+          <cell r="C216">
+            <v>3.69999999999999</v>
+          </cell>
+        </row>
+        <row r="217">
+          <cell r="B217">
+            <v>0.20323120212408799</v>
+          </cell>
+          <cell r="C217">
+            <v>3.69999999999999</v>
+          </cell>
+        </row>
+        <row r="218">
+          <cell r="B218">
+            <v>0.20820635395367201</v>
+          </cell>
+          <cell r="C218">
+            <v>3.69999999999999</v>
+          </cell>
+        </row>
+        <row r="219">
+          <cell r="B219">
+            <v>0.205156260872219</v>
+          </cell>
+          <cell r="C219">
+            <v>3.69999999999999</v>
+          </cell>
+        </row>
+        <row r="220">
+          <cell r="B220">
+            <v>0.21253148594622601</v>
+          </cell>
+          <cell r="C220">
+            <v>3.69999999999999</v>
+          </cell>
+        </row>
+        <row r="221">
+          <cell r="B221">
+            <v>0.20725632496108801</v>
+          </cell>
+          <cell r="C221">
+            <v>3.69999999999999</v>
+          </cell>
+        </row>
+        <row r="222">
+          <cell r="B222">
+            <v>0.20511875972777399</v>
+          </cell>
+          <cell r="C222">
+            <v>3.7499999999999898</v>
+          </cell>
+        </row>
+        <row r="223">
+          <cell r="B223">
+            <v>0.20879387188329701</v>
+          </cell>
+          <cell r="C223">
+            <v>3.7499999999999898</v>
+          </cell>
+        </row>
+        <row r="224">
+          <cell r="B224">
+            <v>0.209193884090701</v>
+          </cell>
+          <cell r="C224">
+            <v>3.7499999999999898</v>
+          </cell>
+        </row>
+        <row r="225">
+          <cell r="B225">
+            <v>0.21491905880916701</v>
+          </cell>
+          <cell r="C225">
+            <v>3.7499999999999898</v>
+          </cell>
+        </row>
+        <row r="226">
+          <cell r="B226">
+            <v>0.20653130283516899</v>
+          </cell>
+          <cell r="C226">
+            <v>3.7499999999999898</v>
+          </cell>
+        </row>
+        <row r="227">
+          <cell r="B227">
+            <v>0.21888167973876099</v>
+          </cell>
+          <cell r="C227">
+            <v>3.7499999999999898</v>
+          </cell>
+        </row>
+        <row r="228">
+          <cell r="B228">
+            <v>0.219094186223944</v>
+          </cell>
+          <cell r="C228">
+            <v>3.7499999999999898</v>
+          </cell>
+        </row>
+        <row r="229">
+          <cell r="B229">
+            <v>0.21871917477950301</v>
+          </cell>
+          <cell r="C229">
+            <v>3.7499999999999898</v>
+          </cell>
+        </row>
+        <row r="230">
+          <cell r="B230">
+            <v>0.20824385509811699</v>
+          </cell>
+          <cell r="C230">
+            <v>3.7499999999999898</v>
+          </cell>
+        </row>
+        <row r="231">
+          <cell r="B231">
+            <v>0.21601909237952799</v>
+          </cell>
+          <cell r="C231">
+            <v>3.7499999999999898</v>
+          </cell>
+        </row>
+        <row r="232">
+          <cell r="B232">
+            <v>0.204956254768517</v>
+          </cell>
+          <cell r="C232">
+            <v>3.7999999999999901</v>
+          </cell>
+        </row>
+        <row r="233">
+          <cell r="B233">
+            <v>0.210431421857356</v>
+          </cell>
+          <cell r="C233">
+            <v>3.7999999999999901</v>
+          </cell>
+        </row>
+        <row r="234">
+          <cell r="B234">
+            <v>0.21133144932401399</v>
+          </cell>
+          <cell r="C234">
+            <v>3.7999999999999901</v>
+          </cell>
+        </row>
+        <row r="235">
+          <cell r="B235">
+            <v>0.206306295968504</v>
+          </cell>
+          <cell r="C235">
+            <v>3.7999999999999901</v>
+          </cell>
+        </row>
+        <row r="236">
+          <cell r="B236">
+            <v>0.21740663472395999</v>
+          </cell>
+          <cell r="C236">
+            <v>3.7999999999999901</v>
+          </cell>
+        </row>
+        <row r="237">
+          <cell r="B237">
+            <v>0.21145645313882799</v>
+          </cell>
+          <cell r="C237">
+            <v>3.7999999999999901</v>
+          </cell>
+        </row>
+        <row r="238">
+          <cell r="B238">
+            <v>0.20528126468703201</v>
+          </cell>
+          <cell r="C238">
+            <v>3.7999999999999901</v>
+          </cell>
+        </row>
+        <row r="239">
+          <cell r="B239">
+            <v>0.207931345561082</v>
+          </cell>
+          <cell r="C239">
+            <v>3.7999999999999901</v>
+          </cell>
+        </row>
+        <row r="240">
+          <cell r="B240">
+            <v>0.219681704153569</v>
+          </cell>
+          <cell r="C240">
+            <v>3.7999999999999901</v>
+          </cell>
+        </row>
+        <row r="241">
+          <cell r="B241">
+            <v>0.20538126773888299</v>
+          </cell>
+          <cell r="C241">
+            <v>3.7999999999999901</v>
+          </cell>
+        </row>
+        <row r="242">
+          <cell r="B242">
+            <v>0.20675630970183401</v>
+          </cell>
+          <cell r="C242">
+            <v>3.8499999999999899</v>
+          </cell>
+        </row>
+        <row r="243">
+          <cell r="B243">
+            <v>0.219719205298013</v>
+          </cell>
+          <cell r="C243">
+            <v>3.8499999999999899</v>
+          </cell>
+        </row>
+        <row r="244">
+          <cell r="B244">
+            <v>0.21303150120548101</v>
+          </cell>
+          <cell r="C244">
+            <v>3.8499999999999899</v>
+          </cell>
+        </row>
+        <row r="245">
+          <cell r="B245">
+            <v>0.205981286049989</v>
+          </cell>
+          <cell r="C245">
+            <v>3.8499999999999899</v>
+          </cell>
+        </row>
+        <row r="246">
+          <cell r="B246">
+            <v>0.20815635242774699</v>
+          </cell>
+          <cell r="C246">
+            <v>3.8499999999999899</v>
+          </cell>
+        </row>
+        <row r="247">
+          <cell r="B247">
+            <v>0.22066923429059701</v>
+          </cell>
+          <cell r="C247">
+            <v>3.8499999999999899</v>
+          </cell>
+        </row>
+        <row r="248">
+          <cell r="B248">
+            <v>0.218656672872096</v>
+          </cell>
+          <cell r="C248">
+            <v>3.8499999999999899</v>
+          </cell>
+        </row>
+        <row r="249">
+          <cell r="B249">
+            <v>0.20693131504257301</v>
+          </cell>
+          <cell r="C249">
+            <v>3.8499999999999899</v>
+          </cell>
+        </row>
+        <row r="250">
+          <cell r="B250">
+            <v>0.22038172551652499</v>
+          </cell>
+          <cell r="C250">
+            <v>3.8499999999999899</v>
+          </cell>
+        </row>
+        <row r="251">
+          <cell r="B251">
+            <v>0.215119064912869</v>
+          </cell>
+          <cell r="C251">
+            <v>3.8499999999999899</v>
+          </cell>
+        </row>
+        <row r="252">
+          <cell r="B252">
+            <v>0.21206897183141499</v>
+          </cell>
+          <cell r="C252">
+            <v>3.8499999999999899</v>
+          </cell>
+        </row>
+        <row r="253">
+          <cell r="B253">
+            <v>0.21931919309060899</v>
+          </cell>
+          <cell r="C253">
+            <v>3.8499999999999899</v>
+          </cell>
+        </row>
+        <row r="254">
+          <cell r="B254">
+            <v>0.219569200720236</v>
+          </cell>
+          <cell r="C254">
+            <v>3.8499999999999899</v>
+          </cell>
+        </row>
+        <row r="255">
+          <cell r="B255">
+            <v>0.208256355479598</v>
+          </cell>
+          <cell r="C255">
+            <v>3.8499999999999899</v>
+          </cell>
+        </row>
+        <row r="256">
+          <cell r="B256">
+            <v>0.217269130527665</v>
+          </cell>
+          <cell r="C256">
+            <v>3.8499999999999899</v>
+          </cell>
+        </row>
+        <row r="257">
+          <cell r="B257">
+            <v>0.21019391460921</v>
+          </cell>
+          <cell r="C257">
+            <v>3.8999999999999901</v>
+          </cell>
+        </row>
+        <row r="258">
+          <cell r="B258">
+            <v>0.21059392681661401</v>
+          </cell>
+          <cell r="C258">
+            <v>3.8999999999999901</v>
+          </cell>
+        </row>
+        <row r="259">
+          <cell r="B259">
+            <v>0.20694381542405399</v>
+          </cell>
+          <cell r="C259">
+            <v>3.8999999999999901</v>
+          </cell>
+        </row>
+        <row r="260">
+          <cell r="B260">
+            <v>0.21996921292763999</v>
+          </cell>
+          <cell r="C260">
+            <v>3.8999999999999901</v>
+          </cell>
+        </row>
+        <row r="261">
+          <cell r="B261">
+            <v>0.20670630817590799</v>
+          </cell>
+          <cell r="C261">
+            <v>3.8999999999999901</v>
+          </cell>
+        </row>
+        <row r="262">
+          <cell r="B262">
+            <v>0.21723162938321999</v>
+          </cell>
+          <cell r="C262">
+            <v>3.8999999999999901</v>
+          </cell>
+        </row>
+        <row r="263">
+          <cell r="B263">
+            <v>0.207806341746269</v>
+          </cell>
+          <cell r="C263">
+            <v>3.8999999999999901</v>
+          </cell>
+        </row>
+        <row r="264">
+          <cell r="B264">
+            <v>0.20688131351664699</v>
+          </cell>
+          <cell r="C264">
+            <v>3.8999999999999901</v>
+          </cell>
+        </row>
+        <row r="265">
+          <cell r="B265">
+            <v>0.21516906643879499</v>
+          </cell>
+          <cell r="C265">
+            <v>3.8999999999999901</v>
+          </cell>
+        </row>
+        <row r="266">
+          <cell r="B266">
+            <v>0.20915638294625599</v>
+          </cell>
+          <cell r="C266">
+            <v>3.8999999999999901</v>
+          </cell>
+        </row>
+        <row r="267">
+          <cell r="B267">
+            <v>0.20779384136478701</v>
+          </cell>
+          <cell r="C267">
+            <v>3.94999999999999</v>
+          </cell>
+        </row>
+        <row r="268">
+          <cell r="B268">
+            <v>9.3965367595446603E-2</v>
+          </cell>
+          <cell r="C268">
+            <v>3.94999999999999</v>
+          </cell>
+        </row>
+        <row r="269">
+          <cell r="B269">
+            <v>1.0187810907315201E-2</v>
+          </cell>
+          <cell r="C269">
+            <v>3.94999999999999</v>
+          </cell>
+        </row>
+        <row r="270">
+          <cell r="B270">
+            <v>6.3626941740165402E-3</v>
+          </cell>
+          <cell r="C270">
+            <v>3.94999999999999</v>
+          </cell>
+        </row>
+        <row r="271">
+          <cell r="B271">
+            <v>3.46260567033906E-3</v>
+          </cell>
+          <cell r="C271">
+            <v>3.94999999999999</v>
+          </cell>
+        </row>
+        <row r="272">
+          <cell r="B272">
+            <v>3.46260567033906E-3</v>
+          </cell>
+          <cell r="C272">
+            <v>3.94999999999999</v>
+          </cell>
+        </row>
+        <row r="273">
+          <cell r="B273">
+            <v>0.182943082979827</v>
+          </cell>
+          <cell r="C273">
+            <v>3.94999999999999</v>
+          </cell>
+        </row>
+        <row r="274">
+          <cell r="B274">
+            <v>0.20460624408703801</v>
+          </cell>
+          <cell r="C274">
+            <v>3.94999999999999</v>
+          </cell>
+        </row>
+        <row r="275">
+          <cell r="B275">
+            <v>0.20820635395367201</v>
+          </cell>
+          <cell r="C275">
+            <v>3.94999999999999</v>
+          </cell>
+        </row>
+        <row r="276">
+          <cell r="B276">
+            <v>0.20013110751670801</v>
+          </cell>
+          <cell r="C276">
+            <v>3.94999999999999</v>
+          </cell>
+        </row>
+        <row r="277">
+          <cell r="B277">
+            <v>0.207131321146275</v>
+          </cell>
+          <cell r="C277">
+            <v>3.94999999999999</v>
+          </cell>
+        </row>
+        <row r="278">
+          <cell r="B278">
+            <v>0.20416873073519001</v>
+          </cell>
+          <cell r="C278">
+            <v>3.94999999999999</v>
+          </cell>
+        </row>
+        <row r="279">
+          <cell r="B279">
+            <v>0.20873136997589001</v>
+          </cell>
+          <cell r="C279">
+            <v>3.94999999999999</v>
+          </cell>
+        </row>
+        <row r="280">
+          <cell r="B280">
+            <v>0.21543157444990299</v>
+          </cell>
+          <cell r="C280">
+            <v>3.94999999999999</v>
+          </cell>
+        </row>
+        <row r="281">
+          <cell r="B281">
+            <v>0.21524406872768301</v>
+          </cell>
+          <cell r="C281">
+            <v>3.94999999999999</v>
+          </cell>
+        </row>
+        <row r="282">
+          <cell r="B282">
+            <v>0.218944181646168</v>
+          </cell>
+          <cell r="C282">
+            <v>3.94999999999999</v>
+          </cell>
+        </row>
+        <row r="283">
+          <cell r="B283">
+            <v>0.21491905880916701</v>
+          </cell>
+          <cell r="C283">
+            <v>3.94999999999999</v>
+          </cell>
+        </row>
+        <row r="284">
+          <cell r="B284">
+            <v>0.220394225898007</v>
+          </cell>
+          <cell r="C284">
+            <v>3.9999999999999898</v>
+          </cell>
+        </row>
+        <row r="285">
+          <cell r="B285">
+            <v>0.22034422437208101</v>
+          </cell>
+          <cell r="C285">
+            <v>3.9999999999999898</v>
+          </cell>
+        </row>
+        <row r="286">
+          <cell r="B286">
+            <v>0.21895668202764901</v>
+          </cell>
+          <cell r="C286">
+            <v>3.9999999999999898</v>
+          </cell>
+        </row>
+        <row r="287">
+          <cell r="B287">
+            <v>0.209106381420331</v>
+          </cell>
+          <cell r="C287">
+            <v>3.9999999999999898</v>
+          </cell>
+        </row>
+        <row r="288">
+          <cell r="B288">
+            <v>0.21805665456099099</v>
+          </cell>
+          <cell r="C288">
+            <v>3.9999999999999898</v>
+          </cell>
+        </row>
+        <row r="289">
+          <cell r="B289">
+            <v>0.212793993957335</v>
+          </cell>
+          <cell r="C289">
+            <v>3.9999999999999898</v>
+          </cell>
+        </row>
+        <row r="290">
+          <cell r="B290">
+            <v>0.20720632343516299</v>
+          </cell>
+          <cell r="C290">
+            <v>3.9999999999999898</v>
+          </cell>
+        </row>
+        <row r="291">
+          <cell r="B291">
+            <v>0.207043818475905</v>
+          </cell>
+          <cell r="C291">
+            <v>3.9999999999999898</v>
+          </cell>
+        </row>
+        <row r="292">
+          <cell r="B292">
+            <v>0.209868904690694</v>
+          </cell>
+          <cell r="C292">
+            <v>3.9999999999999898</v>
+          </cell>
+        </row>
+        <row r="293">
+          <cell r="B293">
+            <v>0.21881917783135399</v>
+          </cell>
+          <cell r="C293">
+            <v>3.9999999999999898</v>
+          </cell>
+        </row>
+        <row r="294">
+          <cell r="B294">
+            <v>0.216444105349894</v>
+          </cell>
+          <cell r="C294">
+            <v>4.0499999999999901</v>
+          </cell>
+        </row>
+        <row r="295">
+          <cell r="B295">
+            <v>0.21100643940549901</v>
+          </cell>
+          <cell r="C295">
+            <v>4.0499999999999901</v>
+          </cell>
+        </row>
+        <row r="296">
+          <cell r="B296">
+            <v>0.210431421857356</v>
+          </cell>
+          <cell r="C296">
+            <v>4.0499999999999901</v>
+          </cell>
+        </row>
+        <row r="297">
+          <cell r="B297">
+            <v>0.21478155461287199</v>
+          </cell>
+          <cell r="C297">
+            <v>4.0499999999999901</v>
+          </cell>
+        </row>
+        <row r="298">
+          <cell r="B298">
+            <v>0.21954419995727401</v>
+          </cell>
+          <cell r="C298">
+            <v>4.0499999999999901</v>
+          </cell>
+        </row>
+        <row r="299">
+          <cell r="B299">
+            <v>0.222244282357249</v>
+          </cell>
+          <cell r="C299">
+            <v>4.0499999999999901</v>
+          </cell>
+        </row>
+        <row r="300">
+          <cell r="B300">
+            <v>0.222219281594286</v>
+          </cell>
+          <cell r="C300">
+            <v>4.0499999999999901</v>
+          </cell>
+        </row>
+        <row r="301">
+          <cell r="B301">
+            <v>0.21460654927213299</v>
+          </cell>
+          <cell r="C301">
+            <v>4.0499999999999901</v>
+          </cell>
+        </row>
+        <row r="302">
+          <cell r="B302">
+            <v>0.210368919949949</v>
+          </cell>
+          <cell r="C302">
+            <v>4.0499999999999901</v>
+          </cell>
+        </row>
+        <row r="303">
+          <cell r="B303">
+            <v>0.216119095431379</v>
+          </cell>
+          <cell r="C303">
+            <v>4.0499999999999901</v>
+          </cell>
+        </row>
+        <row r="304">
+          <cell r="B304">
+            <v>0.21328150883510799</v>
+          </cell>
+          <cell r="C304">
+            <v>4.0999999999999899</v>
+          </cell>
+        </row>
+        <row r="305">
+          <cell r="B305">
+            <v>0.21015641346476599</v>
+          </cell>
+          <cell r="C305">
+            <v>4.0999999999999899</v>
+          </cell>
+        </row>
+        <row r="306">
+          <cell r="B306">
+            <v>0.213256508072145</v>
+          </cell>
+          <cell r="C306">
+            <v>4.0999999999999899</v>
+          </cell>
+        </row>
+        <row r="307">
+          <cell r="B307">
+            <v>0.22193177282021501</v>
+          </cell>
+          <cell r="C307">
+            <v>4.0999999999999899</v>
+          </cell>
+        </row>
+        <row r="308">
+          <cell r="B308">
+            <v>0.22096924344614999</v>
+          </cell>
+          <cell r="C308">
+            <v>4.0999999999999899</v>
+          </cell>
+        </row>
+        <row r="309">
+          <cell r="B309">
+            <v>0.20864386730552001</v>
+          </cell>
+          <cell r="C309">
+            <v>4.0999999999999899</v>
+          </cell>
+        </row>
+        <row r="310">
+          <cell r="B310">
+            <v>0.21619409772026699</v>
+          </cell>
+          <cell r="C310">
+            <v>4.0999999999999899</v>
+          </cell>
+        </row>
+        <row r="311">
+          <cell r="B311">
+            <v>0.220894241157261</v>
+          </cell>
+          <cell r="C311">
+            <v>4.0999999999999899</v>
+          </cell>
+        </row>
+        <row r="312">
+          <cell r="B312">
+            <v>0.21185646534623201</v>
+          </cell>
+          <cell r="C312">
+            <v>4.0999999999999899</v>
+          </cell>
+        </row>
+        <row r="313">
+          <cell r="B313">
+            <v>0.208518863490707</v>
+          </cell>
+          <cell r="C313">
+            <v>4.0999999999999899</v>
+          </cell>
+        </row>
+        <row r="314">
+          <cell r="B314">
+            <v>0.22353182164982999</v>
+          </cell>
+          <cell r="C314">
+            <v>4.1499999999999897</v>
+          </cell>
+        </row>
+        <row r="315">
+          <cell r="B315">
+            <v>0.21393152867213899</v>
+          </cell>
+          <cell r="C315">
+            <v>4.1499999999999897</v>
+          </cell>
+        </row>
+        <row r="316">
+          <cell r="B316">
+            <v>0.213081502731406</v>
+          </cell>
+          <cell r="C316">
+            <v>4.1499999999999897</v>
+          </cell>
+        </row>
+        <row r="317">
+          <cell r="B317">
+            <v>0.21070643024994601</v>
+          </cell>
+          <cell r="C317">
+            <v>4.1499999999999897</v>
+          </cell>
+        </row>
+        <row r="318">
+          <cell r="B318">
+            <v>0.211581456953642</v>
+          </cell>
+          <cell r="C318">
+            <v>4.1499999999999897</v>
+          </cell>
+        </row>
+        <row r="319">
+          <cell r="B319">
+            <v>0.21521906796472001</v>
+          </cell>
+          <cell r="C319">
+            <v>4.1499999999999897</v>
+          </cell>
+        </row>
+        <row r="320">
+          <cell r="B320">
+            <v>0.216444105349894</v>
+          </cell>
+          <cell r="C320">
+            <v>4.1499999999999897</v>
+          </cell>
+        </row>
+        <row r="321">
+          <cell r="B321">
+            <v>0.22126925260170199</v>
+          </cell>
+          <cell r="C321">
+            <v>4.1499999999999897</v>
+          </cell>
+        </row>
+        <row r="322">
+          <cell r="B322">
+            <v>0.22161926328318099</v>
+          </cell>
+          <cell r="C322">
+            <v>4.1499999999999897</v>
+          </cell>
+        </row>
+        <row r="323">
+          <cell r="B323">
+            <v>0.21328150883510799</v>
+          </cell>
+          <cell r="C323">
+            <v>4.1499999999999897</v>
+          </cell>
+        </row>
+        <row r="324">
+          <cell r="B324">
+            <v>0.212994000061037</v>
+          </cell>
+          <cell r="C324">
+            <v>4.1999999999999904</v>
+          </cell>
+        </row>
+        <row r="325">
+          <cell r="B325">
+            <v>0.21039392071291199</v>
+          </cell>
+          <cell r="C325">
+            <v>4.1999999999999904</v>
+          </cell>
+        </row>
+        <row r="326">
+          <cell r="B326">
+            <v>0.217444135868404</v>
+          </cell>
+          <cell r="C326">
+            <v>4.1999999999999904</v>
+          </cell>
+        </row>
+        <row r="327">
+          <cell r="B327">
+            <v>0.21171896114993699</v>
+          </cell>
+          <cell r="C327">
+            <v>4.1999999999999904</v>
+          </cell>
+        </row>
+        <row r="328">
+          <cell r="B328">
+            <v>0.21185646534623201</v>
+          </cell>
+          <cell r="C328">
+            <v>4.1999999999999904</v>
+          </cell>
+        </row>
+        <row r="329">
+          <cell r="B329">
+            <v>0.224281844538712</v>
+          </cell>
+          <cell r="C329">
+            <v>4.1999999999999904</v>
+          </cell>
+        </row>
+        <row r="330">
+          <cell r="B330">
+            <v>0.22438184759056301</v>
+          </cell>
+          <cell r="C330">
+            <v>4.1999999999999904</v>
+          </cell>
+        </row>
+        <row r="331">
+          <cell r="B331">
+            <v>0.21716912747581399</v>
+          </cell>
+          <cell r="C331">
+            <v>4.1999999999999904</v>
+          </cell>
+        </row>
+        <row r="332">
+          <cell r="B332">
+            <v>0.212343980224005</v>
+          </cell>
+          <cell r="C332">
+            <v>4.1999999999999904</v>
+          </cell>
+        </row>
+        <row r="333">
+          <cell r="B333">
+            <v>0.215144065675832</v>
+          </cell>
+          <cell r="C333">
+            <v>4.1999999999999904</v>
+          </cell>
+        </row>
+        <row r="334">
+          <cell r="B334">
+            <v>0.22471935789056</v>
+          </cell>
+          <cell r="C334">
+            <v>4.2499999999999902</v>
+          </cell>
+        </row>
+        <row r="335">
+          <cell r="B335">
+            <v>0.224431849116489</v>
+          </cell>
+          <cell r="C335">
+            <v>4.2499999999999902</v>
+          </cell>
+        </row>
+        <row r="336">
+          <cell r="B336">
+            <v>0.22208177739799101</v>
+          </cell>
+          <cell r="C336">
+            <v>4.2499999999999902</v>
+          </cell>
+        </row>
+        <row r="337">
+          <cell r="B337">
+            <v>0.212968999298074</v>
+          </cell>
+          <cell r="C337">
+            <v>4.2499999999999902</v>
+          </cell>
+        </row>
+        <row r="338">
+          <cell r="B338">
+            <v>0.224694357127597</v>
+          </cell>
+          <cell r="C338">
+            <v>4.2499999999999902</v>
+          </cell>
+        </row>
+        <row r="339">
+          <cell r="B339">
+            <v>0.21086893520920399</v>
+          </cell>
+          <cell r="C339">
+            <v>4.2499999999999902</v>
+          </cell>
+        </row>
+        <row r="340">
+          <cell r="B340">
+            <v>0.21276899319437201</v>
+          </cell>
+          <cell r="C340">
+            <v>4.2499999999999902</v>
+          </cell>
+        </row>
+        <row r="341">
+          <cell r="B341">
+            <v>0.21148145390179099</v>
+          </cell>
+          <cell r="C341">
+            <v>4.2499999999999902</v>
+          </cell>
+        </row>
+        <row r="342">
+          <cell r="B342">
+            <v>0.224456849879451</v>
+          </cell>
+          <cell r="C342">
+            <v>4.2499999999999902</v>
+          </cell>
+        </row>
+        <row r="343">
+          <cell r="B343">
+            <v>0.22474435865352299</v>
+          </cell>
+          <cell r="C343">
+            <v>4.2499999999999902</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19844,7 +22373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2634"/>
   <sheetViews>
     <sheetView topLeftCell="A2589" workbookViewId="0">
